--- a/叻三度.xlsx
+++ b/叻三度.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="叻三度" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="叻三度" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -999,6 +999,74 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1263,7 +1331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS329"/>
+  <dimension ref="A1:AS335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B302" activePane="bottomRight" state="frozen"/>
@@ -51974,6 +52042,1068 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>2,021</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>2318.30</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>868.30</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>868.30</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y330" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA330" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF330" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AG330" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AH330" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI330" t="inlineStr">
+        <is>
+          <t>119.4</t>
+        </is>
+      </c>
+      <c r="AJ330" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AK330" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL330" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="AM330" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AN330" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AO330" t="inlineStr">
+        <is>
+          <t>539.4</t>
+        </is>
+      </c>
+      <c r="AP330" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AQ330" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AR330" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>2,021</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>2318.30</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>868.30</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>868.30</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA331" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF331" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AG331" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AH331" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI331" t="inlineStr">
+        <is>
+          <t>119.4</t>
+        </is>
+      </c>
+      <c r="AJ331" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AK331" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL331" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="AM331" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AN331" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AO331" t="inlineStr">
+        <is>
+          <t>539.4</t>
+        </is>
+      </c>
+      <c r="AP331" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AQ331" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AR331" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>2,946</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>3001.10</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>968.10</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>968.10</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA332" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF332" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AG332" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AH332" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AI332" t="inlineStr">
+        <is>
+          <t>218.9</t>
+        </is>
+      </c>
+      <c r="AJ332" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AK332" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AL332" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="AM332" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AN332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO332" t="inlineStr">
+        <is>
+          <t>269.7</t>
+        </is>
+      </c>
+      <c r="AP332" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AQ332" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AR332" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>2,946</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>3001.10</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>968.10</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>968.10</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA333" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF333" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AG333" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AH333" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AI333" t="inlineStr">
+        <is>
+          <t>218.9</t>
+        </is>
+      </c>
+      <c r="AJ333" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AK333" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AL333" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="AM333" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AN333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AO333" t="inlineStr">
+        <is>
+          <t>269.7</t>
+        </is>
+      </c>
+      <c r="AP333" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AQ333" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AR333" t="inlineStr">
+        <is>
+          <t>119.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>2,904</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>3265.50</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y334" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA334" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF334" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AG334" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AH334" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AI334" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AJ334" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AK334" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AL334" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="AM334" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AN334" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO334" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+      <c r="AP334" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AQ334" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR334" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>2,904</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>3265.50</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>926.50</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA335" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AF335" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AG335" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[19.9]</t>
+        </is>
+      </c>
+      <c r="AH335" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AI335" t="inlineStr">
+        <is>
+          <t>159.2</t>
+        </is>
+      </c>
+      <c r="AJ335" t="inlineStr">
+        <is>
+          <t>珠海_叻三度代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AK335" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AL335" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="AM335" t="inlineStr">
+        <is>
+          <t>珠海_叻三度2人餐[89.9]</t>
+        </is>
+      </c>
+      <c r="AN335" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO335" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+      <c r="AP335" t="inlineStr">
+        <is>
+          <t>珠海_叻三度单人餐[23.9]</t>
+        </is>
+      </c>
+      <c r="AQ335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR335" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
